--- a/rank_analysis/1-4-analysis.xlsx
+++ b/rank_analysis/1-4-analysis.xlsx
@@ -388,7 +388,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>318.8</t>
+          <t>126.9</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>296.5</t>
+          <t>161.25</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>269.56</t>
+          <t>159.04</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>279.96</t>
+          <t>162.88</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>639.202</t>
+          <t>198.796</t>
         </is>
       </c>
     </row>
@@ -468,12 +468,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>799.287</t>
+          <t>186.586</t>
         </is>
       </c>
     </row>
